--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE6987-B492-4731-BAFE-AE8C3886FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8BBD6-2C41-41DC-AD76-776B93D0B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -438,6 +438,153 @@
 [[audio]]</t>
   </si>
   <si>
+    <t>Es wird Zeit für neuen Schmuck. Lass uns mal annehmen, dass du oder eine Beschenkte diesen für umgerechnet 10 Jahre praktisch täglich tragt. Welcher Schmuck darf es sein?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Wenn wir schon beim Traum vom Wohnen sind: Welche Variante darf es für dich als Zuhause sein?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Welches Toilettenpapier würdest du auswählen?
+[[game]]
+Die meisten öffentlichen Toiletten brauchen sicher mehr als eine Rolle Klopapier am Tag, die wir gerade gerechnet haben.
+Übrigens ist dies die einzige öffentliche Toilette auf dem ganzen Weg – nur falls du sie brauchen solltest.</t>
+  </si>
+  <si>
+    <t>Mit welcher dieser Möglichkeiten verbringst du am liebsten deine Freizeit?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Mit welchem Auto bist du am meisten unterwegs?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Was würdest du auf der Schranne wählen? 
+[[game]] 
+Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
+  </si>
+  <si>
+    <t>Was wählst du am häufigsten, wenn du einkaufen gehst?
+[[game]]
+Würdest du die Möglichkeit nutzen, wenn du selbst an einem Ort wie diesem Gemüse anbauen könntest?</t>
+  </si>
+  <si>
+    <t>Hast du schon mal Kleidung zum Stopfen, Flicken oder Ändern in die Schneiderei gegeben?
+Was trägst du heute?
+[[game]]
+Weg zur nächsten Station:
+Bleibe ab hier immer auf der rechten Straßenseite. Es reicht, wenn du für die beiden nächsten Stationen immer nur auf die linke Straßenseite blickst.</t>
+  </si>
+  <si>
+    <t>Wirf einen Blick auf die Stieglbrauerei. Lust auf ein Bier bekommen? Aber welches?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Welches Obst ist du am liebsten?
+[[game]] 
+Vollende zuerst den Spielauftrag, bevor du das [[audio]] anhörend weitergehst.
+[[audio]]</t>
+  </si>
+  <si>
+    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
+[[game]] 
+Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie, wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
+  </si>
+  <si>
+    <t>[[game]]
+Hast du schonmal einen gewebten Teppich reparieren lassen? Was hast du daheim?</t>
+  </si>
+  <si>
+    <t>In welcher Art von Hotel verbringst du deinen Traumurlaub am liebsten? Stell dir vor, du kannst eine Nacht spontan wählen. Welche Unterkunft wäre es?
+[[game]]
+Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lange werden, kannst du hier den Spaziergang für heute beenden. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
+Den zweiten Teil kannst du gerne auch an einem anderen Tag mit neuer Energie genießen.</t>
+  </si>
+  <si>
+    <t>Welche Schuhe trägst du heute? Hast du sie vielleicht sogar schonmal reparieren lassen?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Auf das Handy verzichten? Das machen die wenigsten. Auch dieses Projekt funktioniert nicht ohne. Denn ohne Technik wäre vieles nicht möglich. 
+Wie lange behältst du dein Handy in der Regel?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Das Haus zu deiner linken ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin dem Verfall überlassen wird.
+[[audio]]
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>[[audio]]
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>[[audio]] 
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>[[picture]]
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke in diesen, während du deinen Auftrag  auf dich wirken lässt.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>[[picture]]</t>
+  </si>
+  <si>
+    <t>Welches Rindfleisch kaufst du in der Regel ein?
+[[game]]
+Maxglan hat noch einen Fleischhauer, der sein Fleisch selbst schlachtet und produziert. Und das alles regional.</t>
+  </si>
+  <si>
+    <t>In Gedanken nehmen wir noch schnell einen Kaffee-to-go mit. Aber welchen trinkst du am liebsten?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Noch ein Brot für morgen? Welches isst du am liebsten?
+[[game]]
+Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
+[[audio]]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DescriptionNextStation</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>IsGame</t>
+  </si>
+  <si>
+    <t>HasPics</t>
+  </si>
+  <si>
+    <t>HasAudio</t>
+  </si>
+  <si>
+    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner linken und lass dich inspirieren.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>[[game]]</t>
+  </si>
+  <si>
+    <t>Zum Abendessen haben wir leider keine Zeit mehr, gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
+[[game]]</t>
+  </si>
+  <si>
     <t>Was darf es heute zu Essen geben?
 Höre dir zuerst das Audio an, dann weißt du, was es mit der Zeichnung auf sich hat. Klicke vorher nicht auf „Ergebnis“.
 [[audio]]
@@ -445,158 +592,11 @@
 Hier die Erklärung zum Spiel-Auftrag zum Nachlesen:
 In jeder Spielrunde werden dir drei Möglichkeit präsentiert, zwischen denen du dich entscheiden kannst. Oder du packst einfach deinen Würfel aus und lässt den Zufall entscheiden. 
 Wenn du würfelst, entspricht jede Zahl einem Buchstaben:
-1-2 = A
-3-4 = B
-5-6 = C
+- 1-2 = A
+- 3-4 = B
+- 5-6 = C
 Bei jeder Antwort erhältst du ein Ergebnis an Punkten. Dafür klickst du rechts über dem Bild auf „Ergebnis“. Aber bitte immer erst nachdem du deine Entscheidung hast. Trage das Punkteergebnis immer in das jeweils entsprechende Feld auf deiner Stadtteilkarte ein.
 Gehe, nachdem du deine Punkte für den Spielauftrag eingetragen hast, weiter zur Station 2 „Tischlerei“.</t>
-  </si>
-  <si>
-    <t>Es wird Zeit für neuen Schmuck. Lass uns mal annehmen, dass du oder eine Beschenkte diesen für umgerechnet 10 Jahre praktisch täglich tragt. Welcher Schmuck darf es sein?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Wenn wir schon beim Traum vom Wohnen sind: Welche Variante darf es für dich als Zuhause sein?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Welches Toilettenpapier würdest du auswählen?
-[[game]]
-Die meisten öffentlichen Toiletten brauchen sicher mehr als eine Rolle Klopapier am Tag, die wir gerade gerechnet haben.
-Übrigens ist dies die einzige öffentliche Toilette auf dem ganzen Weg – nur falls du sie brauchen solltest.</t>
-  </si>
-  <si>
-    <t>Mit welcher dieser Möglichkeiten verbringst du am liebsten deine Freizeit?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Mit welchem Auto bist du am meisten unterwegs?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Was würdest du auf der Schranne wählen? 
-[[game]] 
-Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
-  </si>
-  <si>
-    <t>Was wählst du am häufigsten, wenn du einkaufen gehst?
-[[game]]
-Würdest du die Möglichkeit nutzen, wenn du selbst an einem Ort wie diesem Gemüse anbauen könntest?</t>
-  </si>
-  <si>
-    <t>Hast du schon mal Kleidung zum Stopfen, Flicken oder Ändern in die Schneiderei gegeben?
-Was trägst du heute?
-[[game]]
-Weg zur nächsten Station:
-Bleibe ab hier immer auf der rechten Straßenseite. Es reicht, wenn du für die beiden nächsten Stationen immer nur auf die linke Straßenseite blickst.</t>
-  </si>
-  <si>
-    <t>Wirf einen Blick auf die Stieglbrauerei. Lust auf ein Bier bekommen? Aber welches?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Welches Obst ist du am liebsten?
-[[game]] 
-Vollende zuerst den Spielauftrag, bevor du das [[audio]] anhörend weitergehst.
-[[audio]]</t>
-  </si>
-  <si>
-    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
-[[game]] 
-Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie, wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
-  </si>
-  <si>
-    <t>[[game]]
-Hast du schonmal einen gewebten Teppich reparieren lassen? Was hast du daheim?</t>
-  </si>
-  <si>
-    <t>In welcher Art von Hotel verbringst du deinen Traumurlaub am liebsten? Stell dir vor, du kannst eine Nacht spontan wählen. Welche Unterkunft wäre es?
-[[game]]
-Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lange werden, kannst du hier den Spaziergang für heute beenden. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
-Den zweiten Teil kannst du gerne auch an einem anderen Tag mit neuer Energie genießen.</t>
-  </si>
-  <si>
-    <t>Welche Schuhe trägst du heute? Hast du sie vielleicht sogar schonmal reparieren lassen?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Auf das Handy verzichten? Das machen die wenigsten. Auch dieses Projekt funktioniert nicht ohne. Denn ohne Technik wäre vieles nicht möglich. 
-Wie lange behältst du dein Handy in der Regel?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Das Haus zu deiner linken ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin dem Verfall überlassen wird.
-[[audio]]
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>[[audio]]
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>[[audio]] 
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>[[picture]]
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke in diesen, während du deinen Auftrag  auf dich wirken lässt.
-[[picture]]</t>
-  </si>
-  <si>
-    <t>[[picture]]</t>
-  </si>
-  <si>
-    <t>Welches Rindfleisch kaufst du in der Regel ein?
-[[game]]
-Maxglan hat noch einen Fleischhauer, der sein Fleisch selbst schlachtet und produziert. Und das alles regional.</t>
-  </si>
-  <si>
-    <t>In Gedanken nehmen wir noch schnell einen Kaffee-to-go mit. Aber welchen trinkst du am liebsten?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Noch ein Brot für morgen? Welches isst du am liebsten?
-[[game]]
-Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
-[[audio]]</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DescriptionNextStation</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>IsGame</t>
-  </si>
-  <si>
-    <t>HasPics</t>
-  </si>
-  <si>
-    <t>HasAudio</t>
-  </si>
-  <si>
-    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner linken und lass dich inspirieren.
-[[picture]]</t>
-  </si>
-  <si>
-    <t>[[game]]</t>
-  </si>
-  <si>
-    <t>Zum Abendessen haben wir leider keine Zeit mehr, gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
-[[game]]</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1012,28 +1012,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="126.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>101</v>
@@ -1122,7 +1122,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>54</v>
@@ -1166,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>58</v>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>103</v>
@@ -1278,7 +1278,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>106</v>
@@ -1302,7 +1302,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>107</v>
@@ -1326,7 +1326,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>108</v>
@@ -1348,7 +1348,7 @@
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>109</v>
@@ -1394,7 +1394,7 @@
         <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>111</v>
@@ -1418,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>112</v>
@@ -1440,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>114</v>
@@ -1530,7 +1530,7 @@
         <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>117</v>
@@ -1576,7 +1576,7 @@
         <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>119</v>
@@ -1598,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>120</v>
@@ -1622,7 +1622,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>121</v>
@@ -1644,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>122</v>
@@ -1668,7 +1668,7 @@
         <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>123</v>
@@ -1690,7 +1690,7 @@
         <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>124</v>
@@ -1716,7 +1716,7 @@
         <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>125</v>
@@ -1762,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>100</v>
@@ -1786,7 +1786,7 @@
         <v>85</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>127</v>
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>99</v>
@@ -1834,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>98</v>
@@ -1880,7 +1880,7 @@
         <v>88</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>96</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -1928,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>94</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>93</v>
@@ -1978,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>92</v>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8BBD6-2C41-41DC-AD76-776B93D0B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCE9B1-572E-47D2-AD99-E7AF01F34A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -460,11 +460,6 @@
 [[game]]</t>
   </si>
   <si>
-    <t>Was würdest du auf der Schranne wählen? 
-[[game]] 
-Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
-  </si>
-  <si>
     <t>Was wählst du am häufigsten, wenn du einkaufen gehst?
 [[game]]
 Würdest du die Möglichkeit nutzen, wenn du selbst an einem Ort wie diesem Gemüse anbauen könntest?</t>
@@ -597,6 +592,11 @@
 - 5-6 = C
 Bei jeder Antwort erhältst du ein Ergebnis an Punkten. Dafür klickst du rechts über dem Bild auf „Ergebnis“. Aber bitte immer erst nachdem du deine Entscheidung hast. Trage das Punkteergebnis immer in das jeweils entsprechende Feld auf deiner Stadtteilkarte ein.
 Gehe, nachdem du deine Punkte für den Spielauftrag eingetragen hast, weiter zur Station 2 „Tischlerei“.</t>
+  </si>
+  <si>
+    <t>Was würdest du auf der Schranne wählen? 
+[[game]]
+Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1012,28 +1012,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>101</v>
@@ -1166,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>58</v>
@@ -1278,7 +1278,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>106</v>
@@ -1348,7 +1348,7 @@
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>109</v>
@@ -1418,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>112</v>
@@ -1440,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>114</v>
@@ -1530,7 +1530,7 @@
         <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>117</v>
@@ -1576,7 +1576,7 @@
         <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>119</v>
@@ -1598,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>120</v>
@@ -1622,7 +1622,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>121</v>
@@ -1644,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>122</v>
@@ -1668,7 +1668,7 @@
         <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>123</v>
@@ -1690,7 +1690,7 @@
         <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>124</v>
@@ -1716,7 +1716,7 @@
         <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>125</v>
@@ -1762,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>100</v>
@@ -1786,7 +1786,7 @@
         <v>85</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>127</v>
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>99</v>
@@ -1834,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>98</v>
@@ -1880,7 +1880,7 @@
         <v>88</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>96</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -1928,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>94</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>93</v>
@@ -1978,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>92</v>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCE9B1-572E-47D2-AD99-E7AF01F34A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9926B6-9476-4137-A37F-DDAAC5A42B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -476,12 +476,6 @@
 [[game]]</t>
   </si>
   <si>
-    <t>Welches Obst ist du am liebsten?
-[[game]] 
-Vollende zuerst den Spielauftrag, bevor du das [[audio]] anhörend weitergehst.
-[[audio]]</t>
-  </si>
-  <si>
     <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
 [[game]] 
 Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie, wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
@@ -597,6 +591,12 @@
     <t>Was würdest du auf der Schranne wählen? 
 [[game]]
 Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
+  </si>
+  <si>
+    <t>Welches Obst ist du am liebsten?
+[[game]] 
+Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
+[[audio]]</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1012,28 +1012,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>101</v>
@@ -1166,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>58</v>
@@ -1278,7 +1278,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>106</v>
@@ -1348,7 +1348,7 @@
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>109</v>
@@ -1418,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>112</v>
@@ -1440,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>114</v>
@@ -1598,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>120</v>
@@ -1622,7 +1622,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>121</v>
@@ -1644,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>122</v>
@@ -1690,7 +1690,7 @@
         <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>124</v>
@@ -1716,7 +1716,7 @@
         <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>125</v>
@@ -1762,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>100</v>
@@ -1786,7 +1786,7 @@
         <v>85</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>127</v>
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>99</v>
@@ -1834,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>98</v>
@@ -1880,7 +1880,7 @@
         <v>88</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>96</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -1928,7 +1928,7 @@
         <v>90</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>94</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>93</v>
@@ -1978,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>92</v>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9926B6-9476-4137-A37F-DDAAC5A42B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B932A5-517A-43A8-9615-3DA35FFD389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Mühlbachgasse</t>
   </si>
   <si>
-    <t>dem Haus auf deiner linken am Ende des verwilderten Gartens.</t>
-  </si>
-  <si>
     <t>Mühlbachgasse 15</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>dem Anfang deines Spaziergangs.</t>
   </si>
   <si>
-    <t>Der Bäckerei nur wenige Schritte weiter zu deiner Rechten.</t>
-  </si>
-  <si>
     <t>dem Laden gleich hier rechts an der Straßenecke, du musst also praktisch gar nicht weiter gehen.</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>einer Brücke.</t>
   </si>
   <si>
-    <t>einer Ampel zu deiner rechten.</t>
-  </si>
-  <si>
     <t>einem Wettbüro.</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
   </si>
   <si>
     <t>einem grünen Haus mit der Aufschrift „Hotel zur Post“.</t>
-  </si>
-  <si>
-    <t>einem modernen Beton-Haus. Gehe an diesem gerade weiter und entdecke, den dazugehörigen Garten.</t>
   </si>
   <si>
     <t>vielen roten, gestapelten Bierkästen.</t>
@@ -426,16 +414,7 @@
 Öffne im Anschluss gleich die Station 1b „Mittagessen“ am selben Standort. Also noch nicht weiter gehen!</t>
   </si>
   <si>
-    <t>[[audio]]
-Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
-Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station weiter zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.</t>
-  </si>
-  <si>
     <t>[[audio]]</t>
-  </si>
-  <si>
-    <t>Auch wenn das rechte Arthotel Kunstwerke nicht nur in seinem Namen beinhaltet, wollen wir einen Blick nach links in den Garten des Hotel Max 70 werfen, denn auch hier verbirgt sich Kunst.
-[[audio]]</t>
   </si>
   <si>
     <t>Es wird Zeit für neuen Schmuck. Lass uns mal annehmen, dass du oder eine Beschenkte diesen für umgerechnet 10 Jahre praktisch täglich tragt. Welcher Schmuck darf es sein?
@@ -476,35 +455,14 @@
 [[game]]</t>
   </si>
   <si>
-    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
-[[game]] 
-Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie, wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
-  </si>
-  <si>
     <t>[[game]]
 Hast du schonmal einen gewebten Teppich reparieren lassen? Was hast du daheim?</t>
   </si>
   <si>
-    <t>In welcher Art von Hotel verbringst du deinen Traumurlaub am liebsten? Stell dir vor, du kannst eine Nacht spontan wählen. Welche Unterkunft wäre es?
-[[game]]
-Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lange werden, kannst du hier den Spaziergang für heute beenden. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
-Den zweiten Teil kannst du gerne auch an einem anderen Tag mit neuer Energie genießen.</t>
-  </si>
-  <si>
     <t>Welche Schuhe trägst du heute? Hast du sie vielleicht sogar schonmal reparieren lassen?
 [[game]]</t>
   </si>
   <si>
-    <t>Auf das Handy verzichten? Das machen die wenigsten. Auch dieses Projekt funktioniert nicht ohne. Denn ohne Technik wäre vieles nicht möglich. 
-Wie lange behältst du dein Handy in der Regel?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Das Haus zu deiner linken ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin dem Verfall überlassen wird.
-[[audio]]
-[[installation_pic]]</t>
-  </si>
-  <si>
     <t>[[audio]]
 [[installation_pic]]</t>
   </si>
@@ -515,10 +473,6 @@
   <si>
     <t>[[picture]]
 [[installation_pic]]</t>
-  </si>
-  <si>
-    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke in diesen, während du deinen Auftrag  auf dich wirken lässt.
-[[picture]]</t>
   </si>
   <si>
     <t>[[picture]]</t>
@@ -527,10 +481,6 @@
     <t>Welches Rindfleisch kaufst du in der Regel ein?
 [[game]]
 Maxglan hat noch einen Fleischhauer, der sein Fleisch selbst schlachtet und produziert. Und das alles regional.</t>
-  </si>
-  <si>
-    <t>In Gedanken nehmen wir noch schnell einen Kaffee-to-go mit. Aber welchen trinkst du am liebsten?
-[[game]]</t>
   </si>
   <si>
     <t>Noch ein Brot für morgen? Welches isst du am liebsten?
@@ -563,15 +513,7 @@
     <t>HasAudio</t>
   </si>
   <si>
-    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner linken und lass dich inspirieren.
-[[picture]]</t>
-  </si>
-  <si>
     <t>[[game]]</t>
-  </si>
-  <si>
-    <t>Zum Abendessen haben wir leider keine Zeit mehr, gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
-[[game]]</t>
   </si>
   <si>
     <t>Was darf es heute zu Essen geben?
@@ -579,24 +521,82 @@
 [[audio]]
 [[game]]
 Hier die Erklärung zum Spiel-Auftrag zum Nachlesen:
-In jeder Spielrunde werden dir drei Möglichkeit präsentiert, zwischen denen du dich entscheiden kannst. Oder du packst einfach deinen Würfel aus und lässt den Zufall entscheiden. 
+In jeder Spielrunde werden dir drei Möglichkeiten präsentiert, zwischen denen du dich entscheiden kannst. Du kannst aber auch deinen Würfel auspacken oder auf das Feld "Zufallsentscheidung" klicken. 
 Wenn du würfelst, entspricht jede Zahl einem Buchstaben:
 - 1-2 = A
 - 3-4 = B
 - 5-6 = C
-Bei jeder Antwort erhältst du ein Ergebnis an Punkten. Dafür klickst du rechts über dem Bild auf „Ergebnis“. Aber bitte immer erst nachdem du deine Entscheidung hast. Trage das Punkteergebnis immer in das jeweils entsprechende Feld auf deiner Stadtteilkarte ein.
+Bei jeder Antwort erhältst du eine Anzahl an Punkten. Dafür klickst du rechts über dem Bild auf „Ergebnis“. Aber bitte erst nachdem du deine Entscheidung hast. Trage das Punkteergebnis immer in das jeweils entsprechende Feld auf deiner Stadtteilkarte ein.
 Gehe, nachdem du deine Punkte für den Spielauftrag eingetragen hast, weiter zur Station 2 „Tischlerei“.</t>
+  </si>
+  <si>
+    <t>[[audio]]
+Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
+Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.</t>
+  </si>
+  <si>
+    <t>Das Haus zu deiner linken Seite ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin sich selbst überlassen wird.
+[[audio]]
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>dem Haus auf deiner Linken am Ende des verwilderten Gartens.</t>
+  </si>
+  <si>
+    <t>einer Ampel auf deiner rechten Seite.</t>
+  </si>
+  <si>
+    <t>einem modernen Beton-Haus. Gehe an diesem gerade weiter und entdecke den dazugehörigen Garten.</t>
+  </si>
+  <si>
+    <t>der Bäckerei nur wenige Schritte weiter zu deiner Rechten.</t>
   </si>
   <si>
     <t>Was würdest du auf der Schranne wählen? 
 [[game]]
-Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links siehst du dazugehörige Felder.</t>
-  </si>
-  <si>
-    <t>Welches Obst ist du am liebsten?
+Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links davon dazugehörige Felder.</t>
+  </si>
+  <si>
+    <t>Auch wenn das rechte Arthotel Kunstwerke nicht nur in seinem Namen beinhaltet, wollen wir einen Blick nach links in den Garten des Hotels Max 70 werfen, denn auch hier verbirgt sich Kunst.
+[[audio]]</t>
+  </si>
+  <si>
+    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner Linken und lass dich inspirieren.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>In welcher Art von Hotel verbringst du deinen Traumurlaub am liebsten? Stell dir vor, du kannst eine Nacht spontan wählen. Welche Unterkunft wäre es?
+[[game]]
+Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lange werden, kannst du hier den Spaziergang unterbrechen. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
+Den zweiten Teil kannst du gerne auch an einem anderen Tag mit neuer Energie genießen.</t>
+  </si>
+  <si>
+    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke auf diesen, während du deinen Auftrag  auf dich wirken lässt.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>Welches Obst isst du am liebsten?
 [[game]] 
 Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
 [[audio]]</t>
+  </si>
+  <si>
+    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
+[[game]] 
+Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
+  </si>
+  <si>
+    <t>Zum Abendessen haben wir leider keine Zeit mehr gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
+[[game]]</t>
+  </si>
+  <si>
+    <t>In Gedanken nehmen wir noch schnell einen Kaffee-to-go mit. Welchen trinkst du am liebsten?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Auf das Handy verzichten? Das machen die wenigsten - auch wenn wir darüber nachdenken sollten, wie abhängig wir sind. Auch dieses Projekt funktioniert nicht ohne, denn ohne die Technik wäre vieles nicht möglich. 
+Wie lange behältst du dein Handy in der Regel?
+[[game]]</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1012,28 +1012,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1052,11 +1052,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="126.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="138.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="55" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="65.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>52</v>
@@ -1122,7 +1122,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>54</v>
@@ -1144,10 +1144,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
@@ -1163,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1185,13 +1185,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1209,13 +1209,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1231,13 +1231,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1253,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1275,13 +1275,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="38.5" x14ac:dyDescent="0.15">
@@ -1299,13 +1299,13 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1323,13 +1323,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1345,13 +1345,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1367,13 +1367,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1391,13 +1391,13 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
@@ -1415,13 +1415,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1437,13 +1437,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1459,13 +1459,13 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1481,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1503,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1527,13 +1527,13 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
@@ -1549,13 +1549,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="44" x14ac:dyDescent="0.15">
@@ -1573,13 +1573,13 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1595,13 +1595,13 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="71.5" x14ac:dyDescent="0.15">
@@ -1619,13 +1619,13 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1641,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1665,13 +1665,13 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" x14ac:dyDescent="0.15">
@@ -1687,13 +1687,13 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
@@ -1713,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1735,13 +1735,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="44" x14ac:dyDescent="0.15">
@@ -1759,13 +1759,13 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1783,13 +1783,13 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1807,13 +1807,13 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
@@ -1831,13 +1831,13 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1853,13 +1853,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" x14ac:dyDescent="0.15">
@@ -1877,13 +1877,13 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1901,13 +1901,13 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1925,16 +1925,16 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.5" x14ac:dyDescent="0.15">
@@ -1975,13 +1975,13 @@
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H43" s="3"/>
     </row>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B932A5-517A-43A8-9615-3DA35FFD389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75712E4-B044-4418-8234-2A0C1E3357C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
   <si>
     <t>Sebastian-Stöllnerstraße 1</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Gamers Finest</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebastian-Stöllner-Str. 6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">einem Zebrastreifen, der dich auf der Sebastian-Stöllner-Straße nach links führt. Biege nochmal nach links ab. Du bist fast angekommen, wenn du auf deiner linken Seite einen Zaun aus Birkenholz-Stämmen siehst. </t>
   </si>
   <si>
@@ -410,15 +407,7 @@
     <t>der Teppichwerkstatt auf der rechten Straßenseite.</t>
   </si>
   <si>
-    <t>[[audio]]
-Öffne im Anschluss gleich die Station 1b „Mittagessen“ am selben Standort. Also noch nicht weiter gehen!</t>
-  </si>
-  <si>
     <t>[[audio]]</t>
-  </si>
-  <si>
-    <t>Es wird Zeit für neuen Schmuck. Lass uns mal annehmen, dass du oder eine Beschenkte diesen für umgerechnet 10 Jahre praktisch täglich tragt. Welcher Schmuck darf es sein?
-[[game]]</t>
   </si>
   <si>
     <t>Wenn wir schon beim Traum vom Wohnen sind: Welche Variante darf es für dich als Zuhause sein?
@@ -432,10 +421,6 @@
   </si>
   <si>
     <t>Mit welcher dieser Möglichkeiten verbringst du am liebsten deine Freizeit?
-[[game]]</t>
-  </si>
-  <si>
-    <t>Mit welchem Auto bist du am meisten unterwegs?
 [[game]]</t>
   </si>
   <si>
@@ -455,10 +440,6 @@
 [[game]]</t>
   </si>
   <si>
-    <t>[[game]]
-Hast du schonmal einen gewebten Teppich reparieren lassen? Was hast du daheim?</t>
-  </si>
-  <si>
     <t>Welche Schuhe trägst du heute? Hast du sie vielleicht sogar schonmal reparieren lassen?
 [[game]]</t>
   </si>
@@ -476,11 +457,6 @@
   </si>
   <si>
     <t>[[picture]]</t>
-  </si>
-  <si>
-    <t>Welches Rindfleisch kaufst du in der Regel ein?
-[[game]]
-Maxglan hat noch einen Fleischhauer, der sein Fleisch selbst schlachtet und produziert. Und das alles regional.</t>
   </si>
   <si>
     <t>Noch ein Brot für morgen? Welches isst du am liebsten?
@@ -516,10 +492,60 @@
     <t>[[game]]</t>
   </si>
   <si>
-    <t>Was darf es heute zu Essen geben?
+    <t>[[audio]]
+Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
+Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.</t>
+  </si>
+  <si>
+    <t>dem Haus auf deiner Linken am Ende des verwilderten Gartens.</t>
+  </si>
+  <si>
+    <t>einer Ampel auf deiner rechten Seite.</t>
+  </si>
+  <si>
+    <t>einem modernen Beton-Haus. Gehe an diesem gerade weiter und entdecke den dazugehörigen Garten.</t>
+  </si>
+  <si>
+    <t>der Bäckerei nur wenige Schritte weiter zu deiner Rechten.</t>
+  </si>
+  <si>
+    <t>Auch wenn das rechte Arthotel Kunstwerke nicht nur in seinem Namen beinhaltet, wollen wir einen Blick nach links in den Garten des Hotels Max 70 werfen, denn auch hier verbirgt sich Kunst.
+[[audio]]</t>
+  </si>
+  <si>
+    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner Linken und lass dich inspirieren.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke auf diesen, während du deinen Auftrag  auf dich wirken lässt.
+[[picture]]</t>
+  </si>
+  <si>
+    <t>Welches Obst isst du am liebsten?
+[[game]] 
+Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
+[[audio]]</t>
+  </si>
+  <si>
+    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
+[[game]] 
+Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
+  </si>
+  <si>
+    <t>Zum Abendessen haben wir leider keine Zeit mehr gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
+[[game]]</t>
+  </si>
+  <si>
+    <t>Auf das Handy verzichten? Das machen die wenigsten - auch wenn wir darüber nachdenken sollten, wie abhängig wir sind. Auch dieses Projekt funktioniert nicht ohne, denn ohne die Technik wäre vieles nicht möglich. 
+Wie lange behältst du dein Handy in der Regel?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Was darf es heute zu Essen sein?
 Höre dir zuerst das Audio an, dann weißt du, was es mit der Zeichnung auf sich hat. Klicke vorher nicht auf „Ergebnis“.
 [[audio]]
 [[game]]
+Gehe, nachdem du deine Punkte für den Spielauftrag eingetragen hast, weiter zur Station 2 „Tischlerei“.
 Hier die Erklärung zum Spiel-Auftrag zum Nachlesen:
 In jeder Spielrunde werden dir drei Möglichkeiten präsentiert, zwischen denen du dich entscheiden kannst. Du kannst aber auch deinen Würfel auspacken oder auf das Feld "Zufallsentscheidung" klicken. 
 Wenn du würfelst, entspricht jede Zahl einem Buchstaben:
@@ -527,76 +553,58 @@
 - 3-4 = B
 - 5-6 = C
 Bei jeder Antwort erhältst du eine Anzahl an Punkten. Dafür klickst du rechts über dem Bild auf „Ergebnis“. Aber bitte erst nachdem du deine Entscheidung hast. Trage das Punkteergebnis immer in das jeweils entsprechende Feld auf deiner Stadtteilkarte ein.
-Gehe, nachdem du deine Punkte für den Spielauftrag eingetragen hast, weiter zur Station 2 „Tischlerei“.</t>
-  </si>
-  <si>
-    <t>[[audio]]
-Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
-Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.</t>
-  </si>
-  <si>
-    <t>Das Haus zu deiner linken Seite ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin sich selbst überlassen wird.
+Und jetzt bist du bereit, um weiter zur Station 2 „Tischlerei“ zu gehen.</t>
+  </si>
+  <si>
+    <t>Es wird Zeit für neuen Schmuck. Lass uns mal annehmen, dass du oder eine beschenkte Person diesen für umgerechnet 10 Jahre fast täglich tragt. Welcher Schmuck darf es sein?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Das Haus zu deiner linken Seite ist zwar noch keine Ruine, aber es wird zu einer verfallen, wenn es weiterhin sich selbst überlassen bleibt.
 [[audio]]
 [[installation_pic]]</t>
   </si>
   <si>
-    <t>dem Haus auf deiner Linken am Ende des verwilderten Gartens.</t>
-  </si>
-  <si>
-    <t>einer Ampel auf deiner rechten Seite.</t>
-  </si>
-  <si>
-    <t>einem modernen Beton-Haus. Gehe an diesem gerade weiter und entdecke den dazugehörigen Garten.</t>
-  </si>
-  <si>
-    <t>der Bäckerei nur wenige Schritte weiter zu deiner Rechten.</t>
-  </si>
-  <si>
-    <t>Was würdest du auf der Schranne wählen? 
+    <t>In welchem fahrbaren Untersatz nimmst du am häufigsten Platz?
+[[game]]</t>
+  </si>
+  <si>
+    <t>Was würdest du auf der Schranne (auf dem Markt) wählen? 
 [[game]]
-Das Krailngut ist noch einer der wenigen Stadtbauernhöfe. Rechts siehst du den Bauernhof und links davon dazugehörige Felder.</t>
-  </si>
-  <si>
-    <t>Auch wenn das rechte Arthotel Kunstwerke nicht nur in seinem Namen beinhaltet, wollen wir einen Blick nach links in den Garten des Hotels Max 70 werfen, denn auch hier verbirgt sich Kunst.
-[[audio]]</t>
-  </si>
-  <si>
-    <t>Wirf einen Blick auf das traditionelle Bilderrahmen-Geschäft zu deiner Linken und lass dich inspirieren.
-[[picture]]</t>
+Das Krailngut ist einer der wenigen Stadtbauernhöfe Salzburgs. Rechts siehst du den Bauernhof und links davon die dazugehörigen Felder.</t>
   </si>
   <si>
     <t>In welcher Art von Hotel verbringst du deinen Traumurlaub am liebsten? Stell dir vor, du kannst eine Nacht spontan wählen. Welche Unterkunft wäre es?
 [[game]]
-Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lange werden, kannst du hier den Spaziergang unterbrechen. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
+Wir sind jetzt bei etwas mehr als der Hälfte des Weges angekommen. Solltest du für heute genug Input aufgesogen haben, oder der Weg dir zu lang werden, kannst du hier den Spaziergang unterbrechen. Du bist aber eingeladen, wenn du möchtest, schon die Endstation 39 bei Gamers Finest vorzuziehen, da es sich nur wenige Meter gerade aus von dir befindet. 
 Den zweiten Teil kannst du gerne auch an einem anderen Tag mit neuer Energie genießen.</t>
   </si>
   <si>
-    <t>Direkt nach dem Gebäude des Gasthofes ist ein kleiner Gastgarten. Blicke auf diesen, während du deinen Auftrag  auf dich wirken lässt.
-[[picture]]</t>
-  </si>
-  <si>
-    <t>Welches Obst isst du am liebsten?
-[[game]] 
-Vollende zuerst den Spielauftrag, bevor du das Audio anhörend weitergehst.
-[[audio]]</t>
-  </si>
-  <si>
-    <t>Lust auf einen Snack bekommen? Was isst du am häufigsten?
-[[game]] 
-Mittlerweile gibt es überall diese Automaten, an denen du 24-Stunden am Tag fast alles bekommst. Besonders an der Maxglaner Hauptstraße scheinen sie wie Pilze aus dem Boden zu schießen. Wieviele fallen dir auf dem Weg bis zum Ende der Route auf?</t>
-  </si>
-  <si>
-    <t>Zum Abendessen haben wir leider keine Zeit mehr gemütlich in ein Gasthaus einzukehren. Was lässt du dir liefern? Vergiss nicht die Punkte für Verpackung und Lieferung dazu zu rechnen. 
+    <t>Hast du schonmal einen gewebten Teppich reparieren lassen? Was hast du daheim?
 [[game]]</t>
   </si>
   <si>
-    <t>In Gedanken nehmen wir noch schnell einen Kaffee-to-go mit. Welchen trinkst du am liebsten?
+    <t>Welches Rindfleisch kaufst du in der Regel ein? Solltest du kein Fleisch essen, dann wähle jenes Fleisch aus, dass du kaufen würdest, wenn du es für andere zubereiten würdest.
+[[game]]
+Maxglan hat noch einen Fleischhauer, der sein Fleisch selbst schlachtet und produziert. Und das alles regional.</t>
+  </si>
+  <si>
+    <t>Ein wohltuender Kaffee, das wär's jetzt! Wie genießt du deinen Kaffee am liebsten?
 [[game]]</t>
   </si>
   <si>
-    <t>Auf das Handy verzichten? Das machen die wenigsten - auch wenn wir darüber nachdenken sollten, wie abhängig wir sind. Auch dieses Projekt funktioniert nicht ohne, denn ohne die Technik wäre vieles nicht möglich. 
-Wie lange behältst du dein Handy in der Regel?
-[[game]]</t>
+    <t>Tauche als erstes in das Hörerlebnis ab und lausche der folgenden Aufnahme. 
+[[audio]]
+Öffne im Anschluss gleich die Station 1b „Mittagessen“ am selben Standort. Also noch nicht weiter gehen!</t>
+  </si>
+  <si>
+    <t>Sebastian-Stöllner-Straße 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian-Stöllner-Straße 6 </t>
+  </si>
+  <si>
+    <t>allem, dass sich um dich herum befindet! Hier steht ab der nächsten Station immer ein Hinweis, wie du die nächste Station findest. Damit kannst du deinen Weg anhand der Karte suchen, wenn du nicht Googlemaps verwenden möchtest.</t>
   </si>
 </sst>
 </file>
@@ -993,47 +1001,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.08984375" style="5" customWidth="1"/>
     <col min="8" max="8" width="69.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="6.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1049,14 +1057,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="138.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="110" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1073,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="65.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1095,16 +1105,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1119,13 +1129,13 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1141,16 +1151,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1163,13 +1173,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1185,16 +1195,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1209,13 +1219,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1231,13 +1241,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1253,13 +1263,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1275,16 +1285,16 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="38.5" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1299,16 +1309,16 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1323,13 +1333,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1345,13 +1355,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1367,13 +1377,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1391,16 +1401,16 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1415,13 +1425,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1437,13 +1447,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1459,13 +1469,13 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1481,13 +1491,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1503,16 +1513,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1527,16 +1537,16 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1549,16 +1559,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="44" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1573,16 +1583,16 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1595,16 +1605,16 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="71.5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1619,13 +1629,13 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1641,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1665,16 +1675,16 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="22" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1687,16 +1697,16 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1713,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1735,16 +1745,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="44" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1759,13 +1769,13 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1783,16 +1793,16 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1807,16 +1817,16 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1831,13 +1841,13 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1853,13 +1863,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" x14ac:dyDescent="0.15">
@@ -1877,16 +1887,16 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -1901,16 +1911,16 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="11" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -1925,16 +1935,16 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="22" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -1949,16 +1959,16 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="38.5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -1975,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -2000,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" s="3"/>
     </row>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75712E4-B044-4418-8234-2A0C1E3357C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578426A-AB11-4CD9-B356-D66F2C1662FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="170">
   <si>
     <t>Sebastian-Stöllnerstraße 1</t>
   </si>
@@ -445,10 +445,6 @@
   </si>
   <si>
     <t>[[audio]]
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>[[audio]] 
 [[installation_pic]]</t>
   </si>
   <si>
@@ -605,6 +601,11 @@
   </si>
   <si>
     <t>allem, dass sich um dich herum befindet! Hier steht ab der nächsten Station immer ein Hinweis, wie du die nächste Station findest. Damit kannst du deinen Weg anhand der Karte suchen, wenn du nicht Googlemaps verwenden möchtest.</t>
+  </si>
+  <si>
+    <t>[[audio]] 
+[[installation_pic]]
+[[installation_pic]]</t>
   </si>
 </sst>
 </file>
@@ -1001,17 +1002,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="4" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.08984375" style="5" customWidth="1"/>
     <col min="8" max="8" width="69.26953125" style="5" bestFit="1" customWidth="1"/>
@@ -1020,28 +1021,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1057,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="110" x14ac:dyDescent="0.15">
@@ -1083,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>98</v>
@@ -1105,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>51</v>
@@ -1132,7 +1133,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>53</v>
@@ -1157,7 +1158,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1168,7 +1169,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>56</v>
@@ -1288,7 +1291,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>103</v>
@@ -1350,7 +1353,9 @@
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1404,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>107</v>
@@ -1428,7 +1433,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>108</v>
@@ -1442,7 +1447,9 @@
         <v>25</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>110</v>
@@ -1562,7 +1569,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>114</v>
@@ -1608,7 +1615,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>116</v>
@@ -1632,13 +1639,13 @@
         <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="11" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1646,7 +1653,9 @@
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>117</v>
@@ -1700,7 +1709,7 @@
         <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>119</v>
@@ -1726,7 +1735,7 @@
         <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>120</v>
@@ -1772,7 +1781,7 @@
         <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1796,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>122</v>
@@ -1820,7 +1829,7 @@
         <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>96</v>
@@ -1844,7 +1853,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>95</v>
@@ -1890,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>93</v>
@@ -1914,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>92</v>
@@ -1962,10 +1971,10 @@
         <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.15">
@@ -1988,7 +1997,7 @@
         <v>89</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>90</v>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578426A-AB11-4CD9-B356-D66F2C1662FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F66466-A330-43D3-854F-EFAB6B69ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>Sebastian-Stöllnerstraße 1</t>
   </si>
@@ -418,10 +418,6 @@
 [[game]]
 Die meisten öffentlichen Toiletten brauchen sicher mehr als eine Rolle Klopapier am Tag, die wir gerade gerechnet haben.
 Übrigens ist dies die einzige öffentliche Toilette auf dem ganzen Weg – nur falls du sie brauchen solltest.</t>
-  </si>
-  <si>
-    <t>Mit welcher dieser Möglichkeiten verbringst du am liebsten deine Freizeit?
-[[game]]</t>
   </si>
   <si>
     <t>Was wählst du am häufigsten, wenn du einkaufen gehst?
@@ -486,11 +482,6 @@
   </si>
   <si>
     <t>[[game]]</t>
-  </si>
-  <si>
-    <t>[[audio]]
-Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
-Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.</t>
   </si>
   <si>
     <t>dem Haus auf deiner Linken am Ende des verwilderten Gartens.</t>
@@ -605,6 +596,17 @@
   <si>
     <t>[[audio]] 
 [[installation_pic]]
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>[[audio]]
+Ist es dir aufgefallen? Der QR-Code in der Stadtteilkarte für die nächste Station Nr. 3 „Schmuckatelier“ fehlt. Kipppunkte können Fehler in Systemen bedeuten. Sie können aber auch zu Lernprozessen führen.
+Natürlich musst du nicht immer den jeweiligen QR-Code für jede einzelne Station scannen. Um zur nächsten Station zu kommen, kannst du auch einfach am Ende dieser Seite (unten rechts) auf  die nächste Station unter „Weiter“ klicken.
+[[installation_pic]]</t>
+  </si>
+  <si>
+    <t>Mit welcher dieser Möglichkeiten verbringst du am liebsten deine Freizeit?
+[[game]]
 [[installation_pic]]</t>
   </si>
 </sst>
@@ -1002,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1021,28 +1023,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1058,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="110" x14ac:dyDescent="0.15">
@@ -1084,16 +1086,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1101,15 +1103,17 @@
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>51</v>
@@ -1133,7 +1137,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>53</v>
@@ -1158,7 +1162,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1179,7 +1183,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>56</v>
@@ -1291,7 +1295,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>103</v>
@@ -1321,7 +1325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>105</v>
@@ -1363,10 +1367,10 @@
         <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1409,7 +1413,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>107</v>
@@ -1433,7 +1437,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>108</v>
@@ -1457,7 +1461,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>109</v>
@@ -1479,7 +1483,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>110</v>
@@ -1547,7 +1551,7 @@
         <v>71</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>113</v>
@@ -1569,7 +1573,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>114</v>
@@ -1593,7 +1597,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>115</v>
@@ -1615,7 +1619,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>116</v>
@@ -1639,10 +1643,10 @@
         <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1663,7 +1667,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>117</v>
@@ -1687,7 +1691,7 @@
         <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>118</v>
@@ -1709,7 +1713,7 @@
         <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>119</v>
@@ -1735,7 +1739,7 @@
         <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>120</v>
@@ -1781,7 +1785,7 @@
         <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1805,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>122</v>
@@ -1829,7 +1833,7 @@
         <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>96</v>
@@ -1853,7 +1857,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>95</v>
@@ -1899,7 +1903,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>93</v>
@@ -1923,7 +1927,7 @@
         <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>92</v>
@@ -1947,7 +1951,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>91</v>
@@ -1971,10 +1975,10 @@
         <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.15">
@@ -1997,7 +2001,7 @@
         <v>89</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>90</v>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F66466-A330-43D3-854F-EFAB6B69ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB5E58-F954-4621-8E65-8FDB88597D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>

--- a/Stations.xlsx
+++ b/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\EWSDebian\home\ffarella\Angela\kipppunkte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB5E58-F954-4621-8E65-8FDB88597D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B1F2A-E10E-46CB-B33C-C35BBFDDF447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{155614D9-2122-484D-8314-DE538359C1A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="169">
   <si>
     <t>Sebastian-Stöllnerstraße 1</t>
   </si>
@@ -441,10 +441,6 @@
   </si>
   <si>
     <t>[[audio]]
-[[installation_pic]]</t>
-  </si>
-  <si>
-    <t>[[picture]]
 [[installation_pic]]</t>
   </si>
   <si>
@@ -1004,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32AFC-DF43-4B83-A4B9-62AF8BDD8AD5}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1796875" defaultRowHeight="5.5" x14ac:dyDescent="0.15"/>
@@ -1023,28 +1019,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1060,13 +1056,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="110" x14ac:dyDescent="0.15">
@@ -1086,10 +1082,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>98</v>
@@ -1110,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>51</v>
@@ -1137,7 +1133,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>53</v>
@@ -1162,7 +1158,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1183,7 +1179,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>56</v>
@@ -1295,7 +1291,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>103</v>
@@ -1343,7 +1339,7 @@
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>105</v>
@@ -1370,7 +1366,7 @@
         <v>130</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" x14ac:dyDescent="0.15">
@@ -1413,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>107</v>
@@ -1437,7 +1433,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>108</v>
@@ -1467,7 +1463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>114</v>
@@ -1619,7 +1615,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>116</v>
@@ -1643,10 +1639,10 @@
         <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1667,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>117</v>
@@ -1713,7 +1709,7 @@
         <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>119</v>
@@ -1739,7 +1735,7 @@
         <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>120</v>
@@ -1785,7 +1781,7 @@
         <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1809,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>122</v>
@@ -1833,7 +1829,7 @@
         <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>96</v>
@@ -1857,7 +1853,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>95</v>
@@ -1903,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>93</v>
@@ -1927,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>92</v>
@@ -1975,10 +1971,10 @@
         <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.15">
@@ -2001,7 +1997,7 @@
         <v>89</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>90</v>
